--- a/MdMainulAbrar_Grades.xlsx
+++ b/MdMainulAbrar_Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Dropbox\studentRepos\MdMainulAbrar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25A5462-264F-4724-A9B5-9B5EFB03A1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53FFA91-8577-4390-AF77-E20D36634EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2820" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Table 1-1" sheetId="1" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1408,7 +1408,9 @@
       <c r="D2" s="5">
         <v>92</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>67</v>
+      </c>
       <c r="F2" s="3">
         <v>92</v>
       </c>
